--- a/dataset/surprised.xlsx
+++ b/dataset/surprised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chopin : Etude No.12 In C Minor Op.10-12 'Revolutionary' (쇼팽 : 연습곡 12번 다단조 작품번호 10-12 '혁명')</t>
+          <t>체념 後(후)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>루이뮤직</t>
+          <t>빅마마</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/023/01/250/2301250_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/003/03/106/303106_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>이젠 너없는 익숙함으로모든걸다 너없는 처음그자리로지울수 없었던 마지막 내 한마디도이젠 조금씩 잊혀져가고 있어아주 오래된 친구인 것처럼마주쳐도 애써 웃어보였지만뒤돌아서면 난 왠지 모를 아픔에그언젠가부턴가 기도했었어아직아니라고 아직아니라고다잊었다고 생각했던 내가 바보라고다른사람이라 생각하고싶어서못본척 그냥 지나쳐도나를 이해해줘 라고 말야아주 오래된 친구인 것처럼웃으면서 너와 얘기할때마다숨길수 없었던 이기적인 나의 욕심에그언제부턴가 기도했었어아직아니라고 아직아니라고다잊었다고 생각했던 내가 바보라고다른사람이라 생각하고 싶어서못본 척그냥 지나쳐도나를 이해해줘 라고 말야안타까운 마음에 내게 잘해주지는 마또다른 기대들로 널 힘들게 할지몰라돌이킬수 없다면 니맘이 정그렇다면이대로 영원히 너를 묻어둘께약속할께 난 널 잊을꺼라고내모든걸 건다해도 너를 지운다고이거하나만 부디 이해해줄래너란 사람 있었단것만나 기억하게 허락해줘 -</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,20 +495,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>베르디 : 레퀴엠 - 진노의 날 (Dies Irae)</t>
+          <t>지각</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pier Giorgio Morandi</t>
+          <t>장덕철</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/60/058/360058_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/101/82/691/10182691_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>계절이 다시 돌아올 때너가 입던 비슷한옷 들을 보며 놀라꽃 핀 이 길거리에널 보면 무슨 말 할지연습을 하곤 해잘못한 것이 많았었는지행복했던 기억 앞에자책을 하며 울곤 해너 얼굴이 점차 흐려질 때몽땅 지운 사진첩을 훑곤 해언제라도 너만 괜찮다면차가 막혔으니까길을 헤맸으니까너무 멀었으니까늦었다고 되레 성질내며그 입술 내민 표정으로한 번만 더 안겨주라일이 너무 고달프다고퇴근길에 포장마차에찡그리던 네 모습과큰일 났다며 웃으며 삼키던달콤했던 술 한 잔이한껏 비려졌어언제라도 너만 괜찮다면차가 막혔으니까길을 헤맸으니까너무 멀었으니까늦었다고 되레 성질내며그 입술 내민 표정으로한 번만 더 안겨주라괜찮을 거라며 다독여줬었던아름답게 웃어주던 넌 없잖아언제라도 괜찮지 않다면내가 망쳤으니까생각이 났으니까보고 싶었으니까늦었다고 이젠 성질내며그 걱정 어린 표정으로한 번만 더 감싸주라</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,20 +522,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>쇼팽 : 즉흥 환상곡</t>
+          <t>결국... 너잖아</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Peter Nagy</t>
+          <t>블랙펄</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/50/961/350961_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/009/47/055/947055_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>너를 모질게도 버렸던 그 날도애써 웃어주던 니 얼굴도한순간도 너를 잊은적 없는 걸넌 언제나 제 자리에나를 안아주던 너의 그 손길도지켜주겠다던 그 약속도한순간도 너를 잊은적 없는 걸넌 언제나 제자리에많이 아팠니 많이 울었니이런 내가 정말 미운거니나를 사랑한 기억조차지운거니 그런거니잊으려 돌아서고 밀어내도언제나 내 안에 넌 살았잖아한 걸음도 못가 또 하루도 못가그만큼 커져가는 너만 보여나 사는 이윤 바로 너였나봐너는 모르고 살아도 돼다시 차오는 너의 그리움만날 아프게 하는걸행복한거니 다른사람과이젠 나 없이도 살아가니나를 사랑한 기억조차지운거니 그런거니잊으려 돌아서고 밀어내도언제나 내 안에 넌 살았잖아한걸음도 못가 또 하루도 못가그만큼 커져가는 너만 보여나 사는 이윤 바로 너였나봐너는 모르고 살아도 돼다시 차오는 너의 그리움만날 아프게 하는걸또 하루가 지나도너만 기억하는 바보잖아괜찮아 너를 가졌으니이젠 보내줄게가끔은 나란여자 기억할래한 번쯤 내 생각에 웃어줄래나 우습겠지만 참 바보같지만그래도 사랑했던 여자라고나 사는 이윤 바로 너였나봐너는 모르고 살아도 돼다시 차오는 너의 그리움만날 아프게 하는걸너를 눈물로 지워가</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -537,20 +549,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chopin : 12 Etudes No.6 In G Sharp Minor Op.25 (쇼팽 : 12개의 연습곡 6번 올림 사단조 작품번호 25)</t>
+          <t>어떤가요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rafael Orozco</t>
+          <t>노을</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/20/557/10620557_20210604195017_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/021/75/838/2175838_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>나지막이 그려지는 기억에나를 부르던 그대목소리가 들리고그대와 있던 기억을하나씩 꺼내보다마지못해 그저 또 눈물이언젠가는 다시 볼 수 있겠지어떻게든 기다리고있을 나니까그저 오늘따라 너무힘이 들어서그대가 보고 싶어서 나그대 나 없이 잘 지내고있는가요그대는 아직 그대로인가요그대가 지금 없는 난아직 이렇게 우는데 오그대 그 좋았던 수많은기억들을이젠 모두 다 잊어버렸나요그대가 지금 없는 난아직 이렇게 우는데그댄 어떤가요혹시라도 내 걱정은 말아요어떻게든 기다리고있을 나니까그저 오늘따라 너무힘이 들어서그대가 보고 싶어서 나그대 나 없이 잘 지내고있는가요그대는 아직 그대로인가요그대가 지금 없는 난아직 이렇게 우는 데 오그대 그 좋았던 수많은 기억들을이젠 모두 다 잊어버렸나요그대가 지금 없는 난아직 이렇게 우는데 오매일 그대의 기억에 살아요아무 말도 할 수 없는내가 보이고다시 그대를 볼 수 없을까 봐난 아무것도 할 수가 없어요</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -560,20 +576,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Necke : Csikos Post (네케 : 크시코스의 우편마차)</t>
+          <t>사랑하니까</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>문차일드</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/020/66/766/2066766_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/000/05/342/5342_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>들리지 않아도 나에게 하고픈니 얘길 다 알아늘 내가 걱정돼 한숨만 내쉬며행복을 바라겠지차라리 너를 하얗게 잊어내며좋은 사람 만나라고하고 싶겠지널 위해서라면전부터 넌 세상에 없었던사람이 되길 빌잖아어떻게 아냐고그렇게 내가 비니까멀리 있지만 아마도우린 같을 테니까허락된 인연은다 하고 말았지만아직도 너와 난 하나라고느껴질 만큼 사랑하니까보이지 않아도 지금 넌어떻게 지낼지 다 알아왜 사는지 조차그 이유 모른 체또 하룰 보냈겠지누굴 만나도 그 어디에 있어도마음은 늘 같은 곳을향해 있겠지애써 참지만서글픈 노래라도 들리면넌 그만 울고 말거야어떻게 아냐고그렇게 내가 사니까멀리 있지만아마도 우린 같을 테니까닿을 수 없는 곳에 슬픔이어도이렇게 헤어져도우린 사랑하니까슬퍼하지마함께 할 내가 없음을난 니가 되고넌 내가 되어 살면 되잖아마음으로 이미서로를 가진거야저 하늘마저도그것만은 어쩔 수 없게사랑하니까</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -583,20 +603,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>모차르트 : 분노의 날, 레퀴엠 (Dies Irae, Requiem In D Minor K. 626)</t>
+          <t>나이</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>카레라</t>
+          <t>윤종신</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/53/258/353258_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/020/44/729/2044729_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>안되는 걸 알고 되는 걸 아는 거그 이별이 왜 그랬는지 아는 거세월한테 배우는 거 결국그럴 수 밖에 없다는 거두자리의 숫자 나를 설명하고두 자리의 숫자 잔소리하네너 뭐하냐고 왜 그러냐고지금이 그럴 때냐고잊고살라는 흔한 말은 철없이살아가는 친구의 성의없는 충고내 가슴 고민들은 겹겹이 다닥다닥굳어 버린 채 한 몸되어 날 누른다날 사랑해 난 아직도사랑받을 만해 이제서야진짜 나를 알 것 같은데이렇게 떠밀리듯 가면 언젠가나이가 멈추는 날서두르듯 마지막 말 할까봐이것저것 뒤범벅인 된 채로 사랑해용서해 내가 잘못했어조금만 더 조금만 더널 사랑해 날 용서해 지금부터채 두자리를 넘기기 어려운데늘어나는 속도는 점점 빨라지고하지 말아야 할 게 늘었어어린 변화는 못 마땅해고개 돌려 한 숨 쉬어도날 사랑해 난 아직도사랑받을 만해 이제서야진짜 나를 알 것 같은데이렇게 떠밀리듯 가면 언젠가나이가 멈추는 날 서두르듯마지막 말 할까봐이것저것 뒤범벅인 된 채로 사랑해용서해 내가 잘못했어조금만 더 조금만 더널 사랑해 날 용서해 지금부터내 잘못이야 날 용서해 지금부터날 사랑해 지쳐가는 날 사랑해</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,20 +630,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>리스트 : '초절 기교 연습곡' 중 제4번D단조 '마제파'</t>
+          <t>우리의 밤을 외워요</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>카더가든</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/68/854/368854_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/102/97/580/10297580_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>하루를 세며 돌아보던 길 위에서먼 걸음을 그만두려고 해요우리는 우리 그대로일 거란 말이속상하고 야윈 날 안아 주길하지만다가온 이별을 알아요밤 비 조금 멎을 때면나는 언젠가 돌아보게 될우리의 밤을 외워요알아요 나는 이해해볼 수 있어계절 끝에 묻어 나온 투정도나는다가온 이별을 알아요밤 비 조금 멎을 때면나는 언젠가 돌아보게 될우리의 밤을 외워요버틸 수도 붙잡을 수도없을 만큼 멀어나는다가온 이별을 알아요밤 비 조금 멎을 때면나는 언젠가 돌아보게 될우리의 밤을 외워요서툴고 밉게 사랑하던 맘 닫아요외워 둔 채 언제 그 언젠가는꺼내요</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -629,20 +657,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vivaldi : The Four Seasons Concerto No.4 In F Minor Op.8 RV.297 'Winter' - I. Allegro Non Molto (비발디 : 사계 협주곡 4번 바단조 작품번호 8 '겨울' - 1악장)</t>
+          <t>붙잡아도 (Feat.백지영)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Czech Chamber Philharmonic Orchestra</t>
+          <t>나몰라패밀리 (Namolla Family)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/023/10/038/2310038_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/004/24/552/424552_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N M F StyleRight hereyeah check it그대 돌아가지 못하게 버리지 못하게날 두고 떠나지 못하게붙잡아도 소용없다고 날 위한 거라고사랑해 나 행복하라고baby don't cry너를 독점하고 싶었어영원히 너를 걱정하고 싶었어반쪽 사랑이 너무나도 깊었어이별 앞에서 한숨이 너무 깊었어우리 그만 만나자는 말 전화기 속에생기 없는 니 목소리가 아직도 생생해우린 침묵했지 정적만이 빽빽해이별 후에도 내 그리움은 쌩쌩해그때를 추억해 달콤했던 너의 입술매일 밤 입에댄 니 사진과 쓴 술너무 막 사는거 아니냐고 친구들은나를 다그쳐 희미한 널 그리면어느새 시계바늘은 새벽을 가리켜난 애써 괜찮은척해 거짓에 탈을 써내 맘처럼 텅빈 하늘은 다시 달은 져아무리 손을 뻗어도 잡히지 않는 너그대 돌아가지 못하게 버리지 못하게날 두고 떠나지 못하게붙잡아도 소용없다고 날 위한 거라고사랑해 나 행복하라고baby don't cry넌 혼자 이별이란 버스를 타버렸어날 두고 사랑에 종점으로 가버렸어넌 매달리는 날헌신짝처럼 쉽게 버렸지만나는 니 칫솔조차 버릴수가 없어내 옆에 니가 없어 아침에 눈을 뜨면모든게 꿈같아 니 꿈을 꾸면버릇처럼 내 단축번호 1번을 눌렀다가황급히 끊어 그래 난 너무 물러내겐 너뿐이었는데 니가 내 꿈이었는데내 안식처는 오로지 니품이었는데내 전부였던 널 내가 어떻게 지워널 붙잡지도 잊지도 못하는내가 너무 미워막막해 내 안에 너란 존재감 때문에눈물을 참고 싶어아랫입술을 깨무네 너 떠난후내 안엔 아무도 없었어단 하루도 내가 나인 적이 없었어그대 돌아가지 못하게 버리지 못하게날 두고 떠나지 못하게붙잡아도 소용없다고 날 위한 거라고사랑해 나 행복하라고baby don't cry제발 다시 돌아와줘 내게로너 하나만을 기다리는 팔 베게로날 가두는 이 고독이 나 너무 싫어다시 데려가줘 우리라는 세계로나 예전처럼 보고 싶다면나 아직까지 사랑한다면돌아와 내 곁으로그대 돌아가지 못하게 버리지 못하게날 두고 떠나지 못하게붙잡아도 소용없다고 날 위한 거라고사랑해 나 행복하라고baby don't cry그대 돌아가지 못하게 버리지 못하게날 두고 떠나지 못하게붙잡아도 소용없다고 날 위한 거라고사랑해 나 행복하라고baby don't cry</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,20 +684,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vivaldi : The Four Seasons Concerto No.2 In G Minor Op.8 RV.315 'Summer' - I. Allegro Non Molto (비발디 : 사계 협주곡 2번 사단조 작품번호 8 '여름' - 1악장)</t>
+          <t>혼자</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Czech Chamber Philharmonic Orchestra</t>
+          <t>거미</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/023/10/038/2310038_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/102/62/376/10262376_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>혼자인 것만 같아늘 다른 곳을 향한 너의 시선도이미 익숙해졌나 봐너의 맘 어디에도 난 보이지를 않아사소한 다툼들에 변명조차 하질 않아어느새 익숙해 화도 나질 않고겹겹이 쌓여가는 감정들에 지쳐만 가점점 더 외로워지는 것 같아혼자인 것만 같아 그래나만 그런 것 같아 그래함께 있어도 혼자인 것만 같은그런 하루하루 사이 어디쯤에혼자 남은 것 같아 그래언제부턴지 사실 나도기억이 나질 않아그랬나 봐 지겨워졌나 봐그래 우리 그만하자미안하다는 말도 잘못했다는 말도 난듣고 싶질 않아 그냥 그만두자우리가 함께하는 내일은이제 더 이상사실 난 그려지지가 않아혼자인 것만 같아 그래나만 그런 것 같아 그래함께 있어도 혼자인 것만 같은그런 하루하루 사이 어디쯤에혼자 남은 것 같아 그래언제부턴지 사실 나도기억이 나질 않아그랬나 봐 지겨워졌나 봐그래 우리 그만하자아무리 애를 써봐도여기까진 거야 너와 나는푹 꺼진 너의 목소리도감정 없는 너의 눈빛도이젠 더 이상 보고 싶지는 않아그래 참 길었던 우리 여기까지혼자 남겨질까 봐 그래뭐가 그리도 겁이 난 건지정말 바보처럼붙잡고서 왜 놓지를 못해그래 이제 그만할래</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -675,20 +711,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vivaldi : The Four Seasons Concerto No.2 In G Minor Op.8 RV.315 'Summer' - III. Presto (비발디 : 사계 협주곡 2번 사단조 작품번호 8 '여름' - 3악장)</t>
+          <t>투명한 눈물</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Czech Chamber Philharmonic Orchestra</t>
+          <t>먼데이 키즈 (Monday Kiz)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/023/10/038/2310038_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/003/58/827/358827_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>눈물이 투명한 이유는마음이 녹아 그런 거래죽을 만큼 차가워진 가슴이녹아내려 그런 거래내 눈물이 다 한 이유는네게 다 줘서 그런 거래소리 내어 울고 싶어찾아보고 또 찾아도날 위해 울 눈물은 없어미쳐버린 내 두 눈이네 모습만 기억한대너무 아파서 너무 슬퍼서죽을것만 같아서아니 아니 아니 안돼제발 날 떠나지마너만 바라고 너만 사랑한내 마음이 날 울려내 가슴을 뜯어내서네게 보여줄 수 있을까비워도 비울 수 없는내 마음의 조각들을움켜 잡고 울고 있잖아미쳐버린 내 두 눈이네 모습만 기억한대너무 아파서 너무 슬퍼서죽을것만 같아서아니 아니 아니 안 돼제발 날 떠나지 마너만 바라고 너만 사랑한내 마음이 날혹시 네가 돌아올까 봐울고 있는 날 안아줄까 봐난 이렇게 널 찾고 있어네가 다시 돌아 오면다시 나를 사랑하면흘려 주려고 참아 왔는데내 마지막 눈물을아니 아니 아니 안 돼제발 날 떠나지 마너만 바라고 너만 사랑할내 마음이 날 울려</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -698,20 +738,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>비발디: 사계 '겨울' 1악장</t>
+          <t>이제와 무슨 소용 있겠냐고</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Antonio Vivaldi</t>
+          <t>한승희</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/23/542/323542_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/103/44/954/10344954_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>잘 지내고 있니 너는 나 없이눈을 뜨면 또 다시네 생각 뿐이라서밥은 먹었는지 아픈 곳은 없는지습관처럼 던지던 말들 되뇌이네너도 나처럼그때 우릴 그리워할까괜한 맘에전화를 걸어 네게이제와 무슨 소용 있겠냐고우리 끝났다고 못 박는 너에게나 술에 취한 채기억 못할 말 밤새도록 너를 괴롭히다혼자 지쳐 잠드는 나란 놈나 참 못났다우리 자주 가던 그 거릴 걷다불어오는 바람이 너인 것만 같아서고갤 들어 너의 모습 찾아보지만혼자 남은 내 모습만 날 기다리네혹시 오늘은너도 나를 그리워 할까괜한 맘에다시 전화를 걸어이제와 무슨 소용 있겠냐고우리 끝났다고 못 박는 너에게나 술에 취한 채기억 못할 말 밤새도록 너를 괴롭히다혼자 지쳐 잠드는 나란 놈나 참 못났다다른 어떤 것도 필요없고내겐 오직 너 하나만너에게 많은 걸 바라지 않을게그저 내곁에만 있어주면 돼오직 너 하나만 내게이제와 아무 소용 없겠지만너 돌아오라고 말하는 나에게너 술에 취한 채지금 어디야 잠깐 얼굴 볼 수 있을까그 말 한마디에 미소짓는나 참 못났다</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -721,20 +765,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>비제 - 하바네라 (오페라 '카르멘'중)</t>
+          <t>몹쓸 사랑</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>반하나</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/20/887/320887_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/76/375/11076375_20221012202057_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>할 말이 많았었는데자꾸만 눈물만이 흐르죠그대가 아닌 것 같아아무 말이라도 해줘요변해간 사랑 그 앞에 앉아서 이제와 대체어떻게 그댈 붙잡을까요원하고 원하죠 날 지웠다 해도 사랑해요미워도 안돼요 죽을 만큼 울어도 안돼요이미 내 마음은 내 것이 아니죠왜 날 몰라요이렇게 그대만을 찾아요알아요 말은 안 해도차마 내 눈을 볼 수 없겠죠견딜 수 없을 거란 걸누구보다 잘 알 테니까두 번은 못할 이런 몹쓸 사랑하지만 나의 맘대로 멈출 수도 없어요원하고 원하죠 날 지웠다 해도 사랑해요미워도 안돼요 죽을 만큼 울어도 안돼요이미 내 마음은 내 것이 아니죠왜 날 몰라요이렇게 그대만을깊은 어둠에 혼자 울어도이 꿈이 끝나면그대 품에서 난 웃을 거야잠시 날 떠나도난 그댈 믿어요 사랑해요기다려 볼게요 그것 밖엔 모르는 나니까이대로 영원히 아파도 좋아요난 그대뿐이죠나를 울릴 그대를 사랑해요그 눈물이 날 살게 할테니</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -744,20 +792,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chopin : 12 Etudes No.4 In C Sharp Minor Op.10 'Torrent' (쇼팽 : 12개의 연습곡 4번 올림 다단조 작품번호 10 '추격')</t>
+          <t>기억을 지워주는 병원 3 (Feat. ROO)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>손열음</t>
+          <t>원써겐, 팻두</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/103/92/762/10392762_20200221183757_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/022/58/688/2258688_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>너를 지울 수 있다고 믿어왔는데예고 없이 찾아 온 추억들 속에사랑했던 너 늘 함께했던 너이젠 어떻게 하죠난 이제하루의 시작이 설레는건너를 볼까봐우연히 마주쳐도 좋아터질 듯 한 마음벌써 세달째나를 애달프게 만드는 사람같은 회사에 같은 버스를타지만 나를 몰라너에게 다가갈까 상상만하네너에겐 이미 다른 사람이곁에 있기에기대와 좌절이 엉킨내 감정이 매일날 괴롭혀 기억을 지워야겠어오늘 말이야 조금특별한 환자가 왔어낯이 익어 그래 분명 봤어병원에서 수 많은 추억을 쌓으며몇 년 동안 여러가지 사연과사랑을 봐왔지만이런 케이스는 처음이야수술이 불가능해왜 기억을 지울 수 없다는 거죠 네이건 말하면 안되는 거지만당신은 기억을 지운 적이 있어불과 세달전에너를 지울 수 있다고 믿어왔는데예고 없이 찾아온 추억들 속에사랑했던 너 늘 함께했던 너이젠 어떻게 하죠난 이제아무리 생각해도이건 말이 안돼기억을 지울만큼 아픈 일이이미 내게 일어났다니차라리 만나고 헤어졌다면이렇게까진 지우고 싶진 않겠지매일 마주치는 둘을 바라보며그녀의 손을 잡은그 사람이 부러워가슴이 터질듯 답답해요내 사랑은 금지된 걸 알기에지워주세요분명히 당신이 맞아똑같은 사진을 들고와서내게 지워달라 부탁했어 말도 안돼그때도 그 여자 때문에 왔었어 네오르지 못 할 나무라며 아파했지기껏 기억을 지워 줬더니같은 여자한테사랑에 빠지다니 잘 하는 짓이다이건 어쩔 수 없어지워도 지워도 반복될 수 밖에 없는사랑은 인정 할 수 밖에 없어너를 지울 수 있다고 믿어왔는데예고 없이 찾아온 추억들 속에사랑했던 너 늘 함께했던 너이젠 어떻게 하죠난 이제갑자기 모든게 무너지고 있어아픈 사람들을 위해만든 병원인데난 이런 소중한 추억을지우고 있었어이건 잘못됐어지우고 또 지워서흔적조차 없이 난 널 비웠는데왜 이제잘 들어 이 현실을 받아들여기억을 지워주는 병원이생긴 이후로 사람들은 사랑을너무 쉽게 잊으려 했어기억을 지우려 했어모든걸 비우려 했어뭔가 잘못 됐어난 죄를 짓고 있었어이런 소중한 추억들을다 지우고 있었다고아프고 아파도 더 아파해도 돼그만큼 사랑했다는 증거니까우리 사랑한 시간들지웠었는데 이제와 찾아오면나는 어떻게해사랑했던 너 늘 함께했던 너보내야만 하는데 왜 이제살아가며 갖는 수 많은 감정들 속에사랑이 아프다고지우면 모두 끝일까잠시나마 나를 웃게 만들던 너를오늘도 난 말 없이 바라본다사랑할땐 조금 아파도 돼아픈만큼 성숙해지니까 울어도 돼나도 오늘 이간호사한테 고백할래병원은 이제 의미없어 문을 닫겠어지울 수 있다고 믿어왔는데예고 없이 찾아 온 추억들 속에사랑했던 너 늘 함께했던 너</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -767,22 +819,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wolfgang Amadeus Mozart : 마술피리 중 '내 가슴은 지옥의 복수심으로 끓어오르네' (밤의 여왕 아리아)</t>
+          <t>이별 참 못할 짓이더라</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>조수미</t>
+          <t>윤현상</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/62/159/362159_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/020/95/786/2095786_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Der hoelle Rache kochtin meinem HerzenTod und VerzweiflungTod und Verzweiflungflammert um mich herFuehlt nicht durch dichSarastroh TodesschmerzenSarastro Todesschmerzenso bist du meineTochter nimmer mehrSo bist du mein meineTochter nimmer mehrAhmeine Tochter nimmer mehrAhdu bist meine Tochter nimmer mehrVerstossen sei auf ewigverlassen sei auf ewigzertruemmert sei auf ewigalle Bande der NaturVerstossen VerlassenUnd zertruemmertalle Bande der Naturalle allealle Bander der NaturWenn nicht durch dichSarastroh wird erblassenHoert Hoert Hoert RachegoetteHoert der Muttersschwur</t>
+          <t>긴 생머리 밝게 웃고 있던널 그저 바라보던 나언제부터 자꾸 신경 쓰이고괜한 걱정되던 너너무도 당연한 습관이돼 버렸던 일이제 이제 주제 넘은참견이 돼 버린 일사랑 뒤에 오는 슬픔도이별 뒤에 오는 아픔도이젠 내가 모두 다 혼자버텨내려 하네요이별 참 못할 짓이더라너무도 당연한 습관이돼 버렸던 일이제 이제 가슴 아린추억이 돼 버린 일사랑 뒤에 오는 슬픔도이별 뒤에 오는 아픔도이젠 내가 모두 다혼자 버텨내려 하네요이별 참 못할 짓이더라눈감으면 니가 생각나눈을 뜨면 눈물이 흘러이젠 내가 모두 다혼자 버텨내려 하네요이별 참 못할 짓이더라이별 참 못할 짓이더라</t>
         </is>
       </c>
     </row>
@@ -794,20 +846,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ofenbach : Orphee Aux Enfers - Overture 'Can-Can' (오펜바흐 : 천국과 지옥 - 서곡 '캉캉') (영화 '타이타닉')</t>
+          <t>바보</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>박효신</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/022/82/471/2282471_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/000/03/982/3982_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">너무 모르고 있죠 이미 떠난 사인데언젠가 올 거란 생각에 마냥 웃고만 있죠슬픈 상처뿐인데 곁에 있을 거라 믿었죠걱정돼요 내가 없으면 어느 것 하나도 할 수 없던 사람인데꼭 한번 만날 수 있다면 아직 남겨진 내 맘 전하고 싶은데내가 부족한가요 당신을 원한 이유로 이렇게 날 외면하려 하나요단 한번 사랑을 믿어요 볼 수 있다면 나 웃고 살 수 있는데허나 다른 사랑 찾아가란 말은 말아요 날 버리진 않겠죠그럴 리 없잖아요 you부탁해요 곁에 없어도 몸조심하세요 참 힘겨워 했잖아요또 다시 만날 수 있다면 아직 남겨진 내 맘 전하고 싶은데내가 부족한가요 당신을 원한 이유로 이렇게 날 외면하려 하나요단 한번 사랑을 믿어요 볼 수 있다면 나 웃고 살 수 있는데허나 다른 사랑 찾아가란 말은 말아요 날 버리진 않겠죠그럴 리 없잖아요언젠가 잠시라도 기억 할 수 있다면 난 그걸로 되요 </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -817,20 +873,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>라데츠키 행진곡</t>
+          <t>사랑이 술을 가르쳐 (Feat. 백찬 From 8eight)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>이승기</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/43/753/343753_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/007/73/051/773051_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>끝까지 넌 참 많은 걸 가르쳐내가 몰랐던 것들을 알게해어쩌면 날 버리고 떠나서도계속 내 주변을 멤도는듯해사랑을 가르쳐 기쁨 알게하고이별을 가르쳐 눈물 알게하고알고 싶지 않던 것도 알게해너 때문에 못하던 술을 해관심없던 노랫말이 들려잊고 싶어 술을 마시고술 마시면 또 보고 싶어왜 잊는 법은 안가르치고 떠난거야끝까지 넌 정이 너무 많아서이다지도 많은 것을 남겨줘추억을 남기고 날 울게하고상처를 남기고 아프게하고고칠 수 없는 마음에 병을 줘너 때문에 못하던 술을 해관심없던 노랫말이 들려잊고 싶어 술을 마시고술 마시면 또 보고 싶어왜 잊는 법은 안가르치고 떠난거야내 내 내 내 내 몸이망가지는 걸 느껴Yeah I am a looser내 얼굴에 낯빛은점점 더 어두두워져눈시울에 또 젖어그 기운은 온 몸으로 퍼져내 뼈속까지 시리게 만들어제발 좀 살려줘내가 알 필요없는 행복까지니가 알려줬잖아내게 없던 행복일지라도이제 없어선 안되잖아갑자기 니가 없어지니깐뭘 해야될지를 몰라그저 무엇보다 니가 보고 싶어단 하루도 제정신이 아니야술 없이는 난 살 수가 없어술잔 위에 너를 띄우고눈물로 다시 너를 지워왜 잊는 법은 안가르치고 떠난거야왜 잊는 법은 안가르치고 떠난거야</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -840,20 +900,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>베토벤 바이러스 (Beethoven Virus)</t>
+          <t>미치게 그리워서</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>에스제이</t>
+          <t>유해준</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/90/051/390051_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/026/38/703/2638703_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>땅거미진 거리에어둠이 잦아들면저 거리 불빛 가슴을 친다찬 바람에 무뎌진사소한 두려움이빈 사랑에 남겨져내 몸이 아파온다아주 가끔 가끔 미치게 그리워서멍하니 하늘에 기대어너의 안부를 묻곤한다너도 가끔 조금 내 생각 나긴하니듣는 이 없는 이 노래를혼자 오늘도 불러본다나 쓸쓸히 걷다가문득 너 생각나서허전한 맘에 술 한잔 한다내 손에 쥔 전화에니 이름 지워봐도넌 지우지 못하고일어나 집에 간다아주 가끔 가끔미치게 그리워서사는게 지치고 힘들다모진 너를 원망해본다바보 같은 내가정말로 사랑한다너밖에 없는 나에게는정말 세상이 잔인하다가진건 없지만 남은내 사랑을 다 준 한 사람너에게 미쳐 사랑이 미쳐너에게로 달려간다아주 가끔 가끔 미치게 그리워서멍하니 하늘에 기대어너의 안부를 묻곤한다너도 가끔 조금 내 생각 나긴하니미칠 듯 사랑한 기억에죽을 만큼 널 보고 싶다</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -863,20 +927,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Haydn : Symphony No.94 In G Major Hob.I/94 'Surprise' - II. Andante (하이든 : 교향곡 94번 사장조 '놀람' - 2악장)</t>
+          <t>부디</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nova Filarmonia Portuguesa</t>
+          <t>심규선 (Lucia), 에피톤 프로젝트</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/102/23/711/10223711_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/010/86/280/1086280_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>부디 그대 나를 잡아줘흔들리는 나를 일으켜제발 이 거친 파도가날 집어 삼키지 않게부디 그대 나를 안아줘흔들리는 나를 붙잡아제발 이 거친 바람이나를 넘어뜨리려 해저기 우리 함께 눈물짓던그 때 그 모습이 보여이젠 눈이 부시던 날의 기억그래 그 순간 하나로 살테니부디 다시 한 번 나를 안고제발 지친 나를 일으켜줘우리 사랑 했었던 날들아직 모든 것들이 꿈만 같아부디 다시 한 번 나를 깨워제발 지친 나를 일으켜줘다시 나의 손을 잡아줘이제 잡은 두 손을 다신놓지마 제발그대 이렇게 다시 떠나가는 날이젠 언제쯤 다시 볼 수 있을지우리 이렇게 헤어지면언젠가는 또 다시부디 다시 한 번 나를 안고제발 지친 나를 일으켜줘우리 사랑 했었던 날들아직 모든 것들이 꿈만 같아부디 다시 한 번 나를 깨워줘제발 지친 나를 일으켜줘다시 나의 손을 잡아줘부디 다시 한 번 나를 안아줘부디 다시 한 번 나를 안아줘</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -886,20 +954,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rhapsody In Blue (랩소디 인 블루)</t>
+          <t>멀어지다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Paul Whiteman</t>
+          <t>넬 (NELL)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/023/00/979/2300979_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/003/82/579/382579_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>어떻게 하죠우리는 서로아파하네요멀어지네요어떻게 하죠우리는 점점 더슬퍼하네요멀어지네요어쩌면 우린사랑이 아닌집착이었을까요어쩌면 우린사랑이 아닌욕심이었나봐요어떻게 하죠우리는 서로침묵하네요멀어지네요어쩌면 우린사랑이 아닌집착이었을까요어쩌면 우린사랑이 아닌욕심이었나봐요어쩌면 우린운명이 아닌우연이었을까요아마도 우린영원이 아닌여기까진가봐요</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -909,20 +981,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>드보르작 : 교향곡 9번 "신세계로부터" 4악장</t>
+          <t>하루 종일 비가 내렸어</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>London Philharmonic Orchestra</t>
+          <t>디아</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/000/24/051/24051_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/010/78/653/1078653_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>오늘은 많은비가 내렸어 그날 처럼언젠가 우리가 헤어졌던그때 기억 처럼계절이 지나가고 지겨웠던 감기도조금씩 무뎌지고잊은줄만 알았었던 우리 추억이이렇게 또 다시 찾아와하루종일 비가 내렸어한없이 내렸어솔직하지 못했던 이별 만큼아직도 널 사랑 하나봐그렇게 사랑 했나봐잊을수 없어어제는 그거리를 걸었어 그때 처럼언제나 우리는 함께였어참 오랜 시간이하루종일 비가 내렸어한없이 내렸어솔직하지 못했던 이별 만큼아직도 널 사랑 하나봐그렇게 사랑 했나봐잊을수 없어하루종일 펑펑 울었어한참을 울었어허무하게 지내온 시간 만큼아직도 널 사랑 하나봐그렇게 사랑했나봐잊을수 없어 이제</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -932,20 +1008,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>베토벤 : 교향곡 5번 "운명" 1악장</t>
+          <t>차마...</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kurt Masur</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/000/24/051/24051_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/000/32/949/32949_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>차마...저기 저문을 닫아요우리의 추억이 흩어져요슬픈 눈 하지말아요또 다시 그댈 안고싶어져요이제 부질없는 일이죠내마음 애써 추스려야죠그대라도 내가 아끼는 그대라도돌아서는 발걸음 아프지 않아야하는데입술을 깨물죠또 발끝만 보죠눈물이 자꾸만 차올라편한 표정지으며 또 웃음보이며잘가라는 말 해줘야 하는데입술만 떼어도 눈물부터 흘러와떠나가는맘 슬프게 할까봐 음~그댈사랑한다는 말 차마 하지 못했죠시간은 흘러가겠죠그렇게 사랑도 바래지겠죠이별이 다그런거죠그래요 잠시만 아픈거예요내 어깨에 작은 떨림도입술끝에 고이는 눈물도 괜찮아요내가 슬픈건 그대 모습 나의 앞에두고도할말을 다 못하는 거죠입술을 깨물죠 또 발끝만 보죠눈물이 자꾸만 차올라편한 표정지으며 또 웃음 보이며잘가라는 말 해줘야 하는데입술만떼어도 눈물부터 흘러와떠나가는맘 슬프게 할까봐 음~그댈 사랑한다는 말 차마 하지 못했죠 워~~그댈 기다릴꺼란말 차마 하지못했죠</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -955,20 +1035,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>비창 - 베토벤 바이러스 O.S.T</t>
+          <t>후애</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>M.N.J</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/021/74/874/2174874_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/000/16/576/16576_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>난 믿어요 내가 곁에 없어도그댈 생각 안해도 그대 힘을 내어잘살거라는걸더이상은 그대 힘들지 않게눈물 흘리지 않게 내가 그댈떠나야만 하는거죠그 오랜시간 동안에그대를 아프게 한 내가미안할 뿐이죠이렇게 이별을 택한나 그대에게다른 아픔 주지만 곧 잊혀지겠죠그대를 나 너무 사랑하기에내가 떠나는 거죠그토록 그댈 아프게 했던 날시간이 지나면 모두 잊은 채로살아갈 수 있죠지금은 힘들지만내 삶이 끝난 뒤에도그대를 만나지 않게 해달라고기도해요이 세상 어디에 나 다시 태어나도그댈 알아볼테죠그댈 사랑할테죠그대를 나 너무 사랑하기에내가 떠나는 거죠그토록 그댈 아프게 했던 날시간이 지나면 모두 잊은 채로살아갈 수 있죠지금은 힘들지만그렇게 나 하나만 바라보며살아가진 마요제발 날 잊어줘요 그댈 위해서그대를 나 너무 사랑하기에내가 떠나는 거죠그토록 그댈 아프게 했던 날시간이 지나면 모두 잊은 채로살아갈 수 있죠지금은 힘들지만지금은 힘들지만</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -978,20 +1062,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>브람스 : 헝가리무곡 5번</t>
+          <t>클렌징크림</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Istvan Bogar</t>
+          <t>브라운아이드걸스</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/58/808/358808_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/020/29/169/2029169_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>아파 아파 다쳐버린 맘이 많이 많이oh my honey honey baby어떻게 해야 하죠온종일 미친 듯이 놀고 와선짙은 화장을 지우죠이런다고 다 잊혀질까요참 못나게도반쯤 지워져 버린 두 볼에반쯤 지워져 버린 내 입술 위에흘린 눈물이 클렌징크림에 녹아요정말 왜요 왜요 왜죠언니 이 까만 밤이 새도록그 녀석 하나 지워내지 못하고왜요 왜요 왜죠 언니내 검게 번진 눈물로못내 잊었다며우겨대는 말 이젠bye bye나 어떡하죠언니 이젠 잠들고 싶은데내 맘은 자꾸 그 녀석한테달려가네요어쩌죠 언니 나 이대론안 될 것만 같아부탁해 딱 한잔만 나와마셔줄래요 부탁해 언니Have you ever been in loveHave you ever really loved사랑 남들은 너무 쉬워하지만 내겐 지워지지 않는문신 같아 또 잔을 비워오늘은 나와 정말 사귀자던멋진 남자도 있었죠근데 자꾸 그 녀석이 보여못나게도 그 자릴 뛰쳐 나왔죠정말 못나게도 어쩔 수 없었죠예쁜 화장이 무슨 소용 있나요정말 왜요 왜요 왜죠 언니그런 녀석 따위 하나를여태 잊지 못했고무심한 기억 저편에 모두 지워그 아이는 이미나를 잊은 것 같다고왜요 왜요 왜죠언니 내 검게 번진 눈물로못내 잊었다며우겨대는 말 이젠 bye bye왜요 왜요 왜요어떡하죠 언니 이젠 잠들고 싶은데내 맘은 자꾸그 녀석한테 달려가네요어쩌죠 언니나 이대론 안 될 것만 같아부탁해 딱 한잔만나와 마셔줄래요부탁해 언니 나하고 파티를 해요아직 난 내 화장을 지우긴 싫어부탁해 언니아파 아파 다쳐버린 맘이많이 많이oh my honey honey baby어떻게 해야 하죠아파 아파 다쳐버린맘이 많이 많이oh my honey honey baby어떻게 해야 하죠</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1001,20 +1089,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Stravinsky : Petrouchka Scene IV. - The Shrove-Tide Fair 'Evening' (스트라빈스키 : 페트르슈카 4장 - 성탄 수요일 전 3일간의 축제 '밤')</t>
+          <t>가슴이 차가운 남자 (Let You Go)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Julius Katchen, Pierre Monteux, Orchsetre De La Societe Des Concerts Du Conservatoire</t>
+          <t>TraxX (트랙스)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/026/66/468/2666468_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/007/78/163/778163_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>하얗게 흐려진 그림 속 추억의책장 속 우린 그저 스쳐간 안녕돌아와 끝내 말 못하고 시간틈새로 흘러 점점 멀어진 기억몇번의 계절 지나 마주한두 눈동자 아무말도 못하고가슴이 차가운 남자가 울어요이별에 모질던 그녀도 우네요바래진 추억 유리조각에 베인상처 흔적만 남아 초라하네요파랗게 질려버린 하늘 굳어버린입술 울컥 그립다 널 외치고미련의 엉킨 인연의 끈 차마 풀지못하고 다시 묻어두네요먹먹한 가슴이 참지 못하고달려 멀어진 니 등뒤로가슴이 차가운 남자가 울어요이별에 모질던 그녀도 우네요바래진 추억 유리조각에 베인상처 흔적만 남아 머물러 있는걸the stay stay againthe stay stay again가슴이 차가운 남자가 울어요이별에 모질던 그녀도 우네요바래진 추억 유리조각에 끊긴눈물속에 시간을 다시 묶어둘게to tied모르죠 이별한 남자의 눈물못견디게 널 맴돌던 지친 한숨도지독한 그리움 목 조르던 엉킨 우리둘의 추억을 슬픈 하늘에 보내둘게</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1024,20 +1116,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>비제 : 카르멘 - 투우사의 노래</t>
+          <t>내 여자</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Monika Krause</t>
+          <t>The One (더원)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/68/307/368307_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/003/94/863/394863_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>결국 내가 먼저 찾았죠너무 오래 걸려서이제 그만 장난치라고많이 놀랬잖아어디에 있었던거야눈물이 앞을 가려너는 보이지가 않고니 옆에서 어색한 모습으로내게 인사하는 그대당신은 누구신가요왜 그대가 곁에 있나요나 밖에 모르는 그녈뭐라하면서 손을 잡았나요저 여자는 내 여잡니다저 여자는 내 여자랍니다그 아무도 손 댈 수 없고기댈 수 없는 내 여자랍니다그런 사람이 날 떠나갑니다내 사랑이 나를 버립니다내 목숨과 같은 그녀가다른 사람에 품에 안깁니다저 여자는 내 여자랍니다사랑이 크기전에 그대여제발 놓아주세요</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1047,20 +1143,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tchaikovsky : The Nutcracker Suite Op.71a - XIII. Var.II Dance Of The Sugar Plum Fairy (차이콥스키 : 호두까기 인형 모음곡 작품번호 71a - 13번. 변주 2-사탕 요정의 춤)</t>
+          <t>곰인형 (Feat. 해금)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Baltimore Symphony Orchestra, Sergiu Comissiona</t>
+          <t>린</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/022/88/368/2288368_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/020/93/727/2093727_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>함께 본 영화표를 태우고니가 사준 곰 인형을 패도엉엉 울어 봐도 후련하질 못해함께 산 핸드폰을 버리고니가 사준 백일반질 빼도준건 다 버려도 널 잊지를 못해아무런 생각도 나지 않고아무도 만나고 싶지 않아사랑이 이런 건지 몰랐어요아무런 얘기도 하기 싫고아무런 전화도 받기 싫어이렇게 힘든 건지 몰랐어요 난백년을 사랑한 게 아닌데백일을 겨우 넘긴 너인데숟가락만 들어도자꾸 니 생각에 눈물이 나세수하다 모르게자꾸 니 생각에 눈물이 나자꾸 니 생각이 나울고 울어도 눈물이 나새빨간 하트를 지우고저장된 일번을 지워도다른 번호로 바꿔 봐도안돼 안돼 안된단 말야모아 논 사진을 치우고니가 준 편질 찢어 봐도할 수 있는 건 다 해봐도안돼 안돼 안된단 말야 너친구도 만나보고 남자도 만날게밥도 잘 먹어보고 술도 좀 마실게근데 또 웃긴 게 해볼 건 다 했는데널 잊는 게 그것만 안돼아무런 생각도 나지 않고아무도 만나고 싶지 않아사랑이 이런 건지 몰랐어요아무런 얘기도 하기 싫고아무런 전화도 받기 싫어이렇게 힘든 건지 몰랐어요힘든 건지 몰랐어요 난새빨간 하트를 지우고저장된 일번을 지워도다른 번호로 바꿔 봐도안돼 안돼 안된단 말야모아 논 사진을 치우고니가 준 편질 찢어 봐도할 수 있는 건 다 해봐도안돼 안돼 안된단 말야 너친구도 만나보고 남자도 만날게밥도 잘 먹어보고 술도 좀 마실게근데 또 웃긴 게 해볼 건 다 했는데널 잊는 게 그것만 안돼함께 본 영화표를 태우고니가 사준 곰 인형을 패도엉엉 울어 봐도 후련하지 못해 난</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1070,20 +1170,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mozart: Symphony No. 40 in G Minor, K. 550 - 1. Molto allegro</t>
+          <t>병원에 가다 (이별..) (Song By 민경)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Karl Bohm, Berliner Philharmoniker</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/021/52/593/2152593_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/003/99/019/399019_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>너무 아파서 병원을 찾아 갔어한참 나를 바라보다 걱정스레 하는 말어디가 아파요말을 할 수 없었어어디가 아픈 줄도 난 몰랐어오늘 처음 본 사람 앞에서바보처럼 난 눈물만 흘렸어내 가슴에 열이나 기억은 멈춰서있고금새라도 내 심장은 터질 것 같아나 이렇게 아픈데 죽을 것만 같은데나의 병은 이렇게하루하루 더해만 가는 가봐벌써 며칠째 처방전에 써있던내겐 너무 쓰기만한시간이란 약들을 삼키고 있어요가슴을 도려 내고기억을 지워줄 수만 있다면지금 이라도 나의 심장을다시 뛸 수 있게 고쳐 주세요눈이 그댈 못보게 얼굴조차도 모르게나의 귀는 아무것도 듣지 못하게그대 이름 까지도 몰랐었던 그때로돌아 갈 수 있도록추억을 꺼내서 버리고 있죠내 가슴에 열이나 기억은 멈춰서있고금새라도 내 심장은 터질 것 같아나 이렇게 아픈데 죽을 것만 같은데나의 병을 낫게 할사람은 아마도 그대인가봐</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1093,20 +1197,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>라 캄파넬라</t>
+          <t>사랑에 아파본 적 있나요</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>스탠딩 에그</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/35/473/335473_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/102/02/185/10202185_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>오랜만야 한마디 짧은 인사에다시 나의 가슴이 내려앉아혹시라도 눈치챌까 그만고개 숙여 나를 감춰야 했어태연한 척 니 앞에 서있었지만자꾸만 울 것 같았던바보 같은 나를 달래며너처럼 난 다 잊지 못했어아직 내 맘 너만 있는걸나 이젠 니 맘 어디에도 내 모습찾진 못했지만 사랑해지금 너를 지키는 사람보다좋아 보여 편안히 웃는 니 얼굴나완 다른 너란 걸 알 수 있어언제 다시 보게 될까힘든 우연을 다시 기다릴 나겠지멀어지는 뒷모습바라보면서 한번쯤 뒤돌아볼까걸음도 딛지 못한 채너처럼 난 다 잊지 못했어아직 내 맘 너만 있는걸나 이젠 니 맘 어디에도 내 모습찾지 못했지만 사랑해지금 너를 지키는 사람보다그래 난 괜찮아아직도 날 힘겹게 보지마너를 사랑했던지난날에 후횐 없는걸이제는 더 이상 나아무것도 해줄 수 없지만언젠가 널 다시 만나면 나 그땐너처럼만 웃어 줄게하지만 난 다 잊진 못했어오늘 너의 환한 그 미소이젠 너를 그만 잊어주길 바라는부탁 같았지만 아직은널 보내기가 힘겨운걸</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1116,20 +1224,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glinka : Ruslan And Ludmila - Overture (글린카 : 루슬란과 루드밀라 - 서곡)</t>
+          <t>사랑이 그렇게 쉬워 (Feat. 태인)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Czech Chamber Philharmonic Orchestra</t>
+          <t>나몰라패밀리 (Namolla Family)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/022/67/750/2267750_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/003/93/053/393053_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>내가 내가 마지막으로 부탁하는데다시 다시 돌아와 주면 안되겠니 제발I believe 내 소원 내 소망그대가 날 찾을 때까지 now사랑 따위는 필요없다고우리 이제 그만 하자고매일 밤마다 나눈 우리 사랑도정말 지긋 지긋하다고이쁜 그 입에서 나온 말이겠어귀를 의심했어아닐거라 나는 생각했어만약 그게 너의 진심이라면그게 너의 너의 진짜 마음이라면이제 떠나가도 돼 기다린다내가 널 정말 나는 널다시 등을 돌려 내게 와줄거라나는 믿었어떠나가란 말은 자존심의 거짓이었어나는 그런 말 못해 안돼내가 사랑했던 널 그렇게 쉽게 쉽게잊고살아갈 자신있다면제발 내가 내가 그럴 수만 있다면제발 가지마라 붙잡아도 꿈쩍 않나봐이렇게라도 내가어떻게 사랑한다 말해봐도소용없나봐이제는 소용없나봐아마도 내가 싫고진저리나 떠나가나봐차라리 떠나가 그래다시는 안돼는걸알면서도 기다리나봐새벽 이슬 이슬 비가 내리고아슬 아슬 눈물이 나려고니 앞에서 아닌척애써 난 웃어보려고잘 참아보려고노력해봐도 안되는게 있잖아더욱 니 앞에선 그게 안되잖아운다 어쩔 수 없이 너의 뒤에서 운다남자라서 소리없이 운다울다가이젠 니 앞에서 울지 않을게울다가절대 눈물따윈 흘리지 않을게그대가니가 어디살던 찾지 않을게떠나가오늘만은 너를 잡고 있을게다른 사람 만나서그렇게 행복할 거 같니세상 남자들이 나만큼을 하니몰라 너는 정말 몰라사랑이 너는 그렇게 쉬운건 줄 아니제발 가지마라 붙잡아도 꿈쩍않나봐이렇게라도 내가어떻게 사랑한다 말해봐도소용없나봐이제는 소용없나봐아마도 내가 싫고진저리나 떠나가나봐차라리 떠나가 그래다시는 안되는 걸알면서도 기다리나봐 난가끔 생각이나 내가 줬던 그만큼내 전부를 잃고 감당하기엔 큰이별 이별인가봐아니 미련 미련 미련인가봐차라리 처음부터 만나지말 걸어느새 빠져버렸어 my girl벗어나려고 해봐도내가 내가 너무 잘 알아그게 안된다는 걸내가 기다려봐도 내가 애원해봐도내가 흐느껴봐도 모를까사랑했다는 그말 니가 전부라는 말다시는 그 말할 수 없겠죠 난제발 가지마라 붙잡아도꿈쩍않나봐 이렇게라도 내가어떻게 사랑한다 말해봐도소용없나봐 이제는 소용없나봐아마도 내가 싫고 진저리나떠나가나봐 차라리 떠나가 그래다시는 안돼는걸 알면서도기다리나봐 난떠나 떠나사랑이 바람에 날린다</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1139,20 +1251,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wagner : The Ring Of The Nibelung - Ride Of The Valkyries (바그너 : 니벨룽겐의 반지 - 발퀴레의 기행) (영화 '지옥의 묵시록')</t>
+          <t>한 사람을 사랑했네</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>한경일</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/023/01/758/2301758_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/000/15/262/15262_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>그런 슬픈 얼굴 하지마 괜찮아질꺼야 나는떠나갈땐 그냥 떠나가 뒤돌아 보지마 제발너를 추억해 그리워 하는건그냥 내겐 일상야 아무렇지 않아허나 너를 그리며 눈감지 않아고여있는 눈물이 흘러내릴까봐한사람을 사랑했네 그리워 했네그런 그녀가 떠나가네 웃음짓고 싶어깊은 나의 절망을 그녀가 볼 수 없게슬플 땐 다른 생각하며 살께아파울 땐 아픔을 삼키면서 살께나는 오히려 니가 너무 걱정돼그사람에 곁에서 나를 그릴까봐한사람을 사랑했네 그리워 했네그런 그녀가 떠나가네 웃음짓고 싶어깊은 나의 절망을 그녀가 볼 수 없게걱정하지마 난 괜찮아 질꺼야이런 날 지워버려 기억속에 니 삶에한사람이 떠나가네 바라만 보네그곳에 내가 남겨졌네 움직일 수 없어울먹이는 어깨를 너에게 들킬까봐나 끝내 가질 수 없을 너니까 워~조금만 생각할게 조금만 지워갈게내가 사랑했던 오직 한사람이 세상 뒤로 할 때 한번쯤 생각할게나를 그리워할 오직 한사람</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1162,20 +1278,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Schubert : Der Erlkonig Op.1 D.328 (슈베르트 : 마왕 작품번호 1)</t>
+          <t>당신을 파괴하는 순간</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Various Artists</t>
+          <t>선우정아</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/008/40/951/840951_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/021/79/960/2179960_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>그래 그 말 맞아 난 변했어그래 네 말 맞아 내 맘 떠났어흐르는 내 눈물이 우스워서나도 모르게 웃음이미안 오해하지는 말아의미없는 눈물이니까그래 그 말 맞아 난 변했어그래 네 말 맞아 내 맘 떠났어흐르는 이 시간도 아까워서네 말 다 들을 수 없어어차피 더 얘기해봤자변하는 건 없을 거야내가 널 잡는 일 없을 거야흐린 두 눈에 가득찬미련조차 지금은 귀찮아인정해줘 네 처지를병신같은 얼굴 치워너 땜에 죄책감이 들잖아쓰레기처럼 짐이 되지마 사랑해바보같잖아 더 말하지마매달리지마 그래니가 싫어 날 보내줘그래 몇 번 말해 그만하자I do hate youI don’t love youI do hate youI don’t love youI do hate youI don’t love youI do hate youI don’t love youI do hate youI don’t love youI do hate youI don’t love you</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1185,20 +1305,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rimsky-Korsakov : The Tale Of Tsar Saltan - The Flight Of The Bumble-Bee (림스키-코르사코프 : 술탄황제의 이야기 - 왕벌의 비행)</t>
+          <t>내일도 우린 아마 쓸쓸할 거야</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Balazs Szokolay</t>
+          <t>OurR (아월)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/003/59/936/359936_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/103/12/990/10312990_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>그만 정신없이 말고이쪽으로 앉아이건 누구의 것인지 몰라잘 올려놨어뭐야 색칠한 머리는들어오지 말아뒤돌아 걸으면아마 난 몰라볼 거야아아아아다 떠나고 나서 남아있는아아아아내일도 우린 아마 쓸쓸할 거야ahBesides meWon't wander down the way I knowoh ahAnd all dayI’ll be lonely with you그만 정신없이 말고이쪽으로 앉아이건 누구의 것인지 몰라잘 올려놨어뭐야 색칠한 머리는들어오지 말아뒤돌아 걸으면아마 난 몰라볼 거야아아아아다 떠나고 나서 남아있는아아아아내일도 우린 아마 쓸쓸할 거야ahBesides meWon't wander down the way I knowoh ahAnd all dayI’ll be lonely with youWe walk at dawn the foggy roadAlways with youWe’ll take care of us togetherwhile weWe walk at dawn the foggy roadAlways with youWe’ll take care of us togetherwhile we</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1208,20 +1332,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chopin : 12 Etude No.11 In A Minor Op.25-11 (쇼팽 : 12개의 연습곡 11번 가단조 작품번호 25-11 '겨울바람') (드라마 '베토벤 바이러스' 삽입곡)</t>
+          <t>+투덜거려본다171115+</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>클래식</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/102/22/958/10222958_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/103/60/655/10360655_20191217165101_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>날 괴롭히는 머릿속에작은 질문들 다I keep on searchingI keep on searching답이 없다아무도 못 찾을 곳으로떠났었지만 나I keep on lookingI keep on looking지금 나 잘 살고는 있는 걸까끝이 난 왜 미리 두려운 걸까이 모든 걸 감당할 수 있을까시간이 없다Am I gonna make it or not그냥 투덜거려본다저 별들을 탓해본다그냥 투덜거려본다시간아 거꾸로 돌아가그냥 투덜거려 본다저 별들을 탓해본다그냥 투덜거려 본다세상이 거꾸로 돌아가 오그냥 투덜거려 본다시간아 거꾸로 돌아가그냥 투덜거려 본다세상이 거꾸로 돌아가 오내가 아끼는 건 점점 멀어져 가네요생각보다 멀리 안 가까운 거리희미해져지우고 싶은 시간들자꾸 그려지네요생각보다 자주열세 번씩 하루지금 나 잘 살고는 있는 걸까끝이 난 왜 미리 두려운 걸까이 모든 걸 감당할 수 있을까시간이 없다Am I gonna make it or not그냥 투덜거려본다저 별들을 탓해본다그냥 투덜거려본다시간아 거꾸로 돌아가그냥 투덜거려 본다저 별들을 탓해본다그냥 투덜거려 본다세상이 거꾸로 돌아가 오그냥 투덜거려 본다시간아 거꾸로 돌아가그냥 투덜거려 본다세상이 거꾸로 돌아가 오나만의 나침판 I keep가리키지 약간 달리그래서 어렵나 봐 적응이수업은 시작했는데I can’t find my seat그래도 너한테맞출 이유는 없는 듯해Don’t wanna be you내 해는 서에서 뜨지Loving this view투덜거리다가 먼저 갈게I’ll see you or something그냥 투덜거려본다저 별들을 탓해본다그냥 투덜거려본다시간아 거꾸로 돌아가그냥 투덜거려 본다저 별들을 탓해본다그냥 투덜거려 본다세상이 거꾸로 돌아가 오</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1231,20 +1359,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tchaikovsky : The Nutcracker Suite Op.71a - VIII. Divertissement IV-Russian Dance 'Trepak' (호두까기 인형 모음곡 작품번호 71a - 8번. 디베르티스망 4-러시아인의 춤 '트레팍')</t>
+          <t>Workaholic</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Baltimore Symphony Orchestra, Sergiu Comissiona</t>
+          <t>선우정아</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/022/88/368/2288368_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/021/79/960/2179960_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>부서질 듯한 폐시간에게 목이 졸리는 심장그래도 난 더 원해이미 난 방전됐어굳어져 가는 두 어깨그러나의 하루는아직 끝나지 않았다두 팔 가득한 짐바쁜 두 다리가 착각을 만들어열심히 살고 있다며인맥의 바다를헤엄치는 인어공주는말보로에게 목소리를 팔고껍질만 남은 위안을 받고꿈을 꾸네바깥세상을 아아아아난 더 원해 want more아직 배고파more money moretobacco more drinksI like it배가 터져 헐크 돼도 난 좋아more money moretobacco more drinks인맥의 바다를헤엄치는 인어공주는말보로에게 목소리를 팔고껍질만 남은 위안을 받고꿈을 꾸네바깥세상을 아아아아난 더 원해 want more아직 배고파more money moretobacco more drinks배가 터져 헐크돼도난 좋아 좋아 좋아 좋아 좋아난 더 원해 give me more아직 배고파more money moretobacco more drinks배가 터져 헐크 돼도 난 좋아more money moretobacco more drinks어디선가 봤는데이름이 기억나질 않아미안한데 이름이 사랑이래어느 새 잃어버려삶의 의미를 위해 모으던열쇠들 불안하기는 하지만지금 내가 좀 바빠서 이만</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1254,20 +1386,186 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Saint-Saëns: 생상스: 동물의 사육제, R.125 - 14. 피날레</t>
+          <t>터트려 (Burst it all)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pascal Roge, Cristina Ortiz, London Sinfonietta, Charles Dutoit</t>
+          <t>선우정아</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/001/48/876/148876_500.jpg/melon/resize/120/quality/80/optimize</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/05/967/10905967_20220331163456_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>내 방은 자꾸 어질러져치우고 또 치워도 채워져이 작은 방에창문도 작은데잔뜩 부풀은 풍선처럼온 몸을 짓누르고 있어하고 싶은 것들포기 못한 것들해야 하는 것들지켜내고 싶은 것들숨이 찰 때까지 막 뛰고 싶어숨 막히도록 울고 싶어품에 가득 찬 내 마음들을자유롭게 놔주고 싶어터트려UhhBurst it all내 밤은 자꾸 우스워져지우고 또 지워도 채워져이 조용한 밤에아무도 못 듣는데내 귀만 터질 것만 같아비명을 질러대고 있어하기 싫은 것들용서 못한 것들모르고 싶은 것들가질 수 없는 것들숨이 찰 때까지 막 뛰고 싶어숨 막히도록 울고 싶어품에 가득 찬 내 마음들을자유롭게 놔주고 싶어터트려UhhBurst it all내 방은 자꾸 어질러져치우고 또 치워도 채워져내 밤은 자꾸 우스워져지우고 또 지워도 채워져Uhh나의 모든 것들Burst it all내가 만든 것들숨이 찰 때까지 막 뛰고 싶어숨 막히도록 울고 싶어품에 가득 찬 내 마음들을자유롭게숨이 찰 때까지 막 뛰고 있어숨 막히도록 울고 있어품에 가득 찬 내 마음들을자유롭게 놔주고 있어터트려</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>멍</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>OurR (아월)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/05/360/10605360_20210511145636_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>멍 절로 살아진 그 날들의멍 가지지 못한 아쉬움에뭘 놓치고 있나 세어보는 멍망쳐버린 다음엔 뭐가 있나멀리 가버리면 나아질까멍청하게 녹아 없어지는 낮아 그저 사라질 꿈이었나잡히지 않는 거였나난 그저 멍하니 보고 있다헛된 말들을멍 절로 살아진 그 날들의멍 가지지 못한 아쉬움에뭘 놓치고 있나 세어보는 멍넘어진 땅에는 뭐가 있나뭐 아직 주울 게 남아있나먼지만 더듬어 세어보는 밤아 그저 사라질 꿈이었나잡히지 않는 거였나난 그저 멍하니 보고 있다헛된 말들을</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Purple Daddy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>선우정아</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/021/79/960/2179960_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>천국이 있을까만약 있다면지옥도있겠네매일 난하늘을 봐저 시커먼하늘 속우리 아빠별은 어디에Wow그리움이증오가 되네누구를 향한 건진몰라단지 내 별은증오로 타네우리 아빨돌려줘지금 당장내 앞에데려놔놔놔보라색 아빠가내 앞에 서 있네천국이 있을까만약 있다면지옥도있겠네Wow그리움이증오가 되네누구를 향한 건진몰라단지 내 별은증오로 타네우리 아빨 돌려줘지금 당장내 앞에데려놔놔놔보라색 아빠가내 앞에 서 있네Fififi피피피피피피피피피피우리 아빨 돌려줘지금 당장우리 아빨 돌려줘지금 당장우리 아빨 돌려줘지금 당장우리 아빨 돌려줘보라색 아빠가내 앞에 서 있네보라색 아빠가내 앞에 서 있네보라색 아빠가보라색 아빠가내 앞에 서 있네보라색 아빠가내 앞에 서 있네서 있네서 있네서 있네my purple daddy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Set Me Free</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>윤하 (YOUNHA)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/021/26/830/2126830_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>빛바랜 낡은기억멈춘 시계속누구도 찾지 못한희미해진 나의모습비틀거리는 꿈들조금씩 멀어진다닳도록 원해 내게무엇도 남지 않은 내게Set me free let me be숨을 쉴 수가 없어Set me free let me be이젠 지겨워졌어Set me free let me be너무 지쳐버렸어Set me free let me be더는 견딜수없어Set me free Set me free하나 바래 보는것차마 말 못하는것아마 묻어두겠지내겐 무거웠던 말빛바랜 낡은기억멈춘 시계속닳도록 원해 내게무엇도 남지않은 내게Set me free let me be숨을 쉴 수가없어Set me free let me be이젠 지겨워졌어Set me free let me be너무 지쳐버렸어Set me free let me be더는 견딜 수 없어Set me free Set me freeSet me free Set me free</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>민수는 혼란스럽다</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>민수</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/102/56/865/10256865_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>그때 내가 그렇게 말했던 건진심이 아녔어변하지 않을 거란 우리 관계를나쁘게 본거야나도 모르겠는 날 너에게 물어이런 저런 말들로널 떠보려는 거 알아너가 듣고 싶어 하는 말을 지금은못하지만 기다려줬으면 해I don’t know how i feelall day long우리의 문제인지 아님 내 문제인지I don't know how to wordmy feeling우리의 문제인지 아님 내 문제인지그때 내가 그렇게 굴었던 건진심이 아녔어돌아서지 않을 줄 알았던 네게나쁘게 한거야너에게 자꾸 원치 않던 말로상처 주는 날미워해도 좋아사실 나의 맘은 그게 아냐너를 아주 원하고 있어나도 모르겠는 날 너에게 물어이런 저런 말들로널 떠보려는 거 알아너가 듣고 싶어 하는 말을 지금은못하지만 기다려줬으면 해I don’t know how i feelall day long우리의 문제인지 아님 내 문제인지I don't know how to wordmy feeling우리의 문제인지 아님 내 문제인지I don’t know how i feelall day long우리의 문제인지 아님 내 문제인지I don't know how to wordmy feeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>지구 멸망 한 시간 전</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Jclef</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/101/93/954/10193954_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>봐곧 주위가해가 뜬 것 처럼 밝아 지고사방에서 운석이 나리고방해 받는 전파는우리소식을 어디도걸어주지 못해 퍼져 나가지어딜 봐도 피할 여지 없고 지켜봐봐아름답지 않아일궈온 것들 모두 다무색해 지는 순간을면하지 못하고 넌여길 벗어나자 하지만 나는제일 처음으로 마중 나가고파피하기 위한 shelter는 없지물고 있을 담배 한 개비외엔 아무것도 챙기지 말지아끼는 건 다 폐기해 뒀지그냥 나랑 가자스러지는 선두에나 서고 말야앞에 뒀으니 너를카운트 다운은 네 박동으로 하지아마 너는 모를 거야 just나의 허망함이 두려 울지도오늘이 아니어도매 순간은 어차피운석 드리우는 삶이야영원히 산다면사랑은 눈 앞의고만 고만한 것창 밖을 봐욕망을 드러내는 시간가장 허무한 우리는추하지 않을 거야우 우 우 우 우 우우 우 우 우 우우 우 우 우 우 우우 우 우 우 우신앙이 지켜주는 이들은 모여다음 생 모습까지 소망 하며이방인인 나의 미래 까지도기도해 주지만나의 훗날은 아무렴 좋지댓가를 치르고 살았지 나의 죄여내 믿지 않는 창조주여거기 있다면 이제 거두 소서담엔 태어나겠느냐 물어 주소서여기저기서 도난 알람이 울고누구도 달래줄 수가 없지빼앗긴 사람들의 울음소리는도망자들의 안도와 섞이지덩치를 가진 이들은약한 자의 소란 앞에웃음이 터지지너는 나를 끝내 못 이기고내가 가자는 대로 몸을 맡기지거봐 저길 엿보기만 할 수 있는이곳이 지상낙원이야아둥바둥 삶에 연연 하는사람들은 못 보는 곳이야서로 미워하는 맘은 녹아본래의 모습이 사랑인 양그제서야 알게 된 엄마 아빠도서로 끌어 안잖아아마 너는 모를 거야 just나의 허망함이 두려울 지도오늘이 아니어도매 순간은 어차피운석 드리우는 삶이야영원히 산다면사랑은 눈 앞의고만 고만한 것창 밖을 봐욕망을 드러내는 시간가장 허무한 우리는추하지 않을 거야우 우 우 우 우 우우 우 우 우 우우 우 우 우 우 우우 우 우 우 우</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>삐뚤어졌어</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>선우정아</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/022/05/829/2205829_500.jpg/melon/resize/120/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>지금 내 얼굴 어떠니 항상난 숨이 막히고 답답해다들 어쩌면 그렇게 평온한얼굴을 할 수 있는지이 세상의 무게가 나만누르진 않을 텐데머리가 무거워 웃을 수가없는데왜 또 다가와 같이 가자손을 내미는데난 잡아줄 수 없어난 거꾸로 서서 세상을 봐그리고 말을 해 모든 건잘못됐어세상도 날 둘러싼 사람들도모두 삐뚤어졌어아니 나만내가 밟고 서 있는 게 땅인지하늘인지 모르겠어눈에 보이는 모든 게 정말진짜인지 어지러워날 지키려 해가 다 지고 있는엄마의 어깨애써 눈 맞추며 다가온그의 입술분명 같은 곳에 있는데 우린방향이 달라난 안아줄 수 없어난 거꾸로 서서 세상을 봐그리고 말을 해 모든 건잘못됐어세상도 날 둘러싼 사람들도모두 삐뚤어졌어아니 나만그래서 미안해 아름다움에게어둠을 밝히는 저 환한 빛에게날 소중히 담은 깊은 두 눈에게나 땜에 삐뚤어진 너의 상처에넌 거꾸로 서 있는 나를 봐그리고 말을 해 힘들어 보인다고세상과 널 둘러싼 사람들과함께 흘러가자고 방법을 알려줘난 거꾸로 서서 세상을 봐그리고 말을 해 다 잘못됐어세상도 날 둘러싼 사람들도모두 삐뚤어졌어아니 나만</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
